--- a/Group.xlsx
+++ b/Group.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Группа</t>
   </si>
   <si>
+    <t>Б8419а</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -29,7 +32,16 @@
     <t>Вакансия</t>
   </si>
   <si>
-    <t>fullName</t>
+    <t>Баян Е. В.</t>
+  </si>
+  <si>
+    <t>Безгодов М. В.</t>
+  </si>
+  <si>
+    <t>Болотин С. Е.</t>
+  </si>
+  <si>
+    <t>Борисов Д. А.</t>
   </si>
 </sst>
 </file>
@@ -368,7 +380,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,36 +392,38 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>8219</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>255</v>
-      </c>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>37</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4"/>
     </row>
@@ -418,9 +432,20 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5"/>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Group.xlsx
+++ b/Group.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Группа</t>
   </si>
@@ -29,7 +29,16 @@
     <t>Вакансия</t>
   </si>
   <si>
+    <t>Программист</t>
+  </si>
+  <si>
     <t>fullName</t>
+  </si>
+  <si>
+    <t>Иванов И.И.</t>
+  </si>
+  <si>
+    <t>петров петр петрович</t>
   </si>
 </sst>
 </file>
@@ -368,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,7 +411,9 @@
       <c r="B3">
         <v>255</v>
       </c>
-      <c r="C3"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -411,16 +422,42 @@
       <c r="B4">
         <v>37</v>
       </c>
-      <c r="C4"/>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5"/>
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/Group.xlsx
+++ b/Group.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Группа</t>
   </si>
   <si>
+    <t>Б8419а</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -29,16 +32,19 @@
     <t>Вакансия</t>
   </si>
   <si>
-    <t>Программист</t>
-  </si>
-  <si>
-    <t>fullName</t>
-  </si>
-  <si>
-    <t>Иванов И.И.</t>
-  </si>
-  <si>
-    <t>петров петр петрович</t>
+    <t>Баян Е. В.</t>
+  </si>
+  <si>
+    <t>Безгодов М. В.</t>
+  </si>
+  <si>
+    <t>Болотин С. Е.</t>
+  </si>
+  <si>
+    <t>Менеджер по маркетингу и рекламе</t>
+  </si>
+  <si>
+    <t>Борисов Д. А.</t>
   </si>
 </sst>
 </file>
@@ -377,7 +383,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,41 +395,41 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>8219</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>255</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -431,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -442,21 +448,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Group.xlsx
+++ b/Group.xlsx
@@ -411,8 +411,8 @@
       <c r="B3">
         <v>255</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -455,8 +455,8 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="C7" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
